--- a/WorshipCreator.TestData/Source/Books/ShaneAndShane/ShaneAndShane.xlsx
+++ b/WorshipCreator.TestData/Source/Books/ShaneAndShane/ShaneAndShane.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PageOptimizer\Data\WorshipCreator.TestData\Source\Books\ShaneAndShane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E0440A-D160-4DF0-9654-3AF1BDB58C0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34ABA85F-09D3-4A0A-9499-6C82AC12EB7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{1898BBCD-4A5D-4B3F-9317-061045B18130}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{1898BBCD-4A5D-4B3F-9317-061045B18130}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics" sheetId="5" r:id="rId1"/>
@@ -3186,7 +3186,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3195,7 +3195,7 @@
     <col min="3" max="3" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.140625" customWidth="1"/>
     <col min="7" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="22" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="22" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="27" customWidth="1"/>
   </cols>
   <sheetData>

--- a/WorshipCreator.TestData/Source/Books/ShaneAndShane/ShaneAndShane.xlsx
+++ b/WorshipCreator.TestData/Source/Books/ShaneAndShane/ShaneAndShane.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PageOptimizer\Data\WorshipCreator.TestData\Source\Books\ShaneAndShane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34ABA85F-09D3-4A0A-9499-6C82AC12EB7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC7E216-03DD-4ACC-A4DC-E3682F72DC47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{1898BBCD-4A5D-4B3F-9317-061045B18130}"/>
+    <workbookView xWindow="32475" yWindow="3675" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{1898BBCD-4A5D-4B3F-9317-061045B18130}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics" sheetId="5" r:id="rId1"/>
@@ -3185,8 +3185,8 @@
   <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4623,7 +4623,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12348,7 +12348,7 @@
         <v>68</v>
       </c>
       <c r="V216" s="1" t="str">
-        <f>IF(J216=S216,"Yes","")</f>
+        <f t="shared" ref="V216:V221" si="0">IF(J216=S216,"Yes","")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -12413,7 +12413,7 @@
         <v>61</v>
       </c>
       <c r="V217" s="1" t="str">
-        <f>IF(J217=S217,"Yes","")</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
     </row>
@@ -12478,7 +12478,7 @@
         <v>61</v>
       </c>
       <c r="V218" s="1" t="str">
-        <f>IF(J218=S218,"Yes","")</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
     </row>
@@ -12543,7 +12543,7 @@
         <v>73</v>
       </c>
       <c r="V219" s="1" t="str">
-        <f>IF(J219=S219,"Yes","")</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
     </row>
@@ -12608,7 +12608,7 @@
         <v>75</v>
       </c>
       <c r="V220" s="1" t="str">
-        <f>IF(J220=S220,"Yes","")</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
     </row>
@@ -12673,7 +12673,7 @@
         <v>63</v>
       </c>
       <c r="V221" s="1" t="str">
-        <f>IF(J221=S221,"Yes","")</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
     </row>
